--- a/Бузина таблицы с тестами.xlsx
+++ b/Бузина таблицы с тестами.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>passed</t>
   </si>
@@ -716,6 +716,12 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -730,12 +736,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1123,7 +1123,7 @@
       <pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1212,7 +1212,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="16">
         <f>COUNTIF(L$8:L$42,"passed")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="16">
@@ -1255,7 +1255,9 @@
         <v>6</v>
       </c>
       <c r="K3" s="10"/>
-      <c r="L3" s="21"/>
+      <c r="L3" s="21">
+        <v>44115</v>
+      </c>
       <c r="M3" s="10"/>
       <c r="N3" s="21"/>
       <c r="O3" s="10"/>
@@ -1339,27 +1341,27 @@
     </row>
     <row r="6" spans="1:122" ht="27" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="52" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="38"/>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="54" t="s">
+      <c r="G6" s="51"/>
+      <c r="H6" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="55" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="8"/>
@@ -1385,9 +1387,9 @@
     </row>
     <row r="7" spans="1:122" ht="54.95" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="50"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="38" t="s">
         <v>22</v>
       </c>
@@ -1397,9 +1399,9 @@
       <c r="G7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="8"/>
       <c r="L7" s="48"/>
       <c r="M7" s="10"/>
@@ -1441,7 +1443,9 @@
       <c r="I8" s="19"/>
       <c r="J8" s="20"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="10"/>
       <c r="N8" s="5"/>
       <c r="O8" s="10"/>
@@ -1477,7 +1481,9 @@
       <c r="I9" s="19"/>
       <c r="J9" s="27"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="10"/>
       <c r="N9" s="5"/>
       <c r="O9" s="10"/>
@@ -1513,7 +1519,9 @@
       <c r="I10" s="19"/>
       <c r="J10" s="20"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="10"/>
       <c r="N10" s="5"/>
       <c r="O10" s="10"/>
@@ -3075,6 +3083,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="R6:R7"/>
@@ -3082,11 +3095,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L12:L42 R12:R42 P12:P42 T12:T42 T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 N12:N42">
